--- a/108/108.xlsx
+++ b/108/108.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\108\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E6F3E-569A-425A-A206-19FEA28A815F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="web 108" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -66,12 +65,21 @@
   </si>
   <si>
     <t>Q 02</t>
+  </si>
+  <si>
+    <t>H 03</t>
+  </si>
+  <si>
+    <t>H 05</t>
+  </si>
+  <si>
+    <t>H 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -155,9 +163,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -176,6 +181,9 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,201 +581,237 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125"/>
     <col min="7" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <f>(0/14)*10</f>
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <f>(13/14)*10</f>
         <v>9.2857142857142865</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>(7/7)*10</f>
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f>(0/14)*10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>(10/14)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f>(9/14)*10</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>(4/7)*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
-        <v>20</v>
+      <c r="B7" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
-        <f>B2+C2</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="8">
+        <f>SUM(B2:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
         <f>(B10*40)/B7</f>
         <v>0</v>
       </c>
@@ -777,26 +821,26 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>C10+D10+E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>((F10-F15)*50)/(F16-F15)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
-        <f>B3+C3</f>
+      <c r="B11" s="8">
+        <f>SUM(B3:F3)</f>
         <v>19.285714285714285</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f>(B11*40)/B7</f>
-        <v>38.571428571428569</v>
+        <v>15.428571428571427</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -804,26 +848,26 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>C11+D11+E11</f>
-        <v>38.571428571428569</v>
-      </c>
-      <c r="G11" s="11">
+        <v>15.428571428571427</v>
+      </c>
+      <c r="G11" s="10">
         <f>((F11-F15)*50)/(F16-F15)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="9">
-        <f>B4+C4</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="8">
+        <f>SUM(B4:F4)</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
         <f>(B12*40)/B7</f>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -831,26 +875,26 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>C12+D12+E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="G12" s="10">
         <f>((F12-F15)*50)/(F16-F15)+50</f>
-        <v>50</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="9">
-        <f>B5+C5</f>
+      <c r="B13" s="8">
+        <f>SUM(B5:F5)</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f>(B13*40)/B7</f>
-        <v>28.571428571428573</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -858,26 +902,26 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>C13+D13+E13</f>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="G13" s="11">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="G13" s="10">
         <f>((F13-F15)*50)/(F16-F15)+50</f>
         <v>87.037037037037038</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="9">
-        <f>B6+C6</f>
+      <c r="B14" s="8">
+        <f>SUM(B6:F6)</f>
         <v>12.142857142857142</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f>(B14*40)/B7</f>
-        <v>24.285714285714285</v>
+        <v>9.7142857142857135</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -885,31 +929,31 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>C14+D14+E14</f>
-        <v>24.285714285714285</v>
-      </c>
-      <c r="G14" s="11">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="G14" s="10">
         <f>((F14-F15)*50)/(F16-F15)+50</f>
         <v>81.481481481481481</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>MIN(F10:F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f>MAX(F10:F13)</f>
-        <v>38.571428571428569</v>
+        <v>15.428571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/108/108.xlsx
+++ b/108/108.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>H 04</t>
+  </si>
+  <si>
+    <t>H 07</t>
+  </si>
+  <si>
+    <t>H 08</t>
+  </si>
+  <si>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>H 11</t>
+  </si>
+  <si>
+    <t>H 12</t>
+  </si>
+  <si>
+    <t>H 13</t>
   </si>
 </sst>
 </file>
@@ -569,7 +587,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,12 +624,24 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -637,11 +667,24 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -667,11 +710,24 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -696,11 +752,24 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -726,11 +795,24 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -756,11 +838,24 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -770,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -808,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="8">
-        <f>SUM(B2:F2)</f>
+        <f>SUM(B2:L2)</f>
         <v>0</v>
       </c>
       <c r="C10" s="9">
@@ -835,26 +930,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" ref="B11:B14" si="0">SUM(B3:L3)</f>
         <v>19.285714285714285</v>
       </c>
       <c r="C11" s="9">
         <f>(B11*40)/B7</f>
-        <v>15.428571428571427</v>
+        <v>7.0129870129870122</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="5">
         <f>C11+D11+E11</f>
-        <v>15.428571428571427</v>
+        <v>12.012987012987011</v>
       </c>
       <c r="G11" s="10">
         <f>((F11-F15)*50)/(F16-F15)+50</f>
-        <v>100</v>
+        <v>90.534618755477652</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -862,26 +957,26 @@
         <v>4</v>
       </c>
       <c r="B12" s="8">
-        <f>SUM(B4:F4)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C12" s="9">
         <f>(B12*40)/B7</f>
-        <v>14.4</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="5">
         <f>C12+D12+E12</f>
-        <v>14.4</v>
+        <v>14.818181818181818</v>
       </c>
       <c r="G12" s="10">
         <f>((F12-F15)*50)/(F16-F15)+50</f>
-        <v>96.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -889,26 +984,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="8">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
       <c r="C13" s="9">
         <f>(B13*40)/B7</f>
-        <v>11.428571428571429</v>
+        <v>5.1948051948051948</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="5">
         <f>C13+D13+E13</f>
-        <v>11.428571428571429</v>
+        <v>10.194805194805195</v>
       </c>
       <c r="G13" s="10">
         <f>((F13-F15)*50)/(F16-F15)+50</f>
-        <v>87.037037037037038</v>
+        <v>84.399649430324274</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -916,26 +1011,26 @@
         <v>6</v>
       </c>
       <c r="B14" s="8">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>12.142857142857142</v>
       </c>
       <c r="C14" s="9">
         <f>(B14*40)/B7</f>
-        <v>9.7142857142857135</v>
+        <v>4.4155844155844148</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="5">
         <f>C14+D14+E14</f>
-        <v>9.7142857142857135</v>
+        <v>8.4155844155844157</v>
       </c>
       <c r="G14" s="10">
         <f>((F14-F15)*50)/(F16-F15)+50</f>
-        <v>81.481481481481481</v>
+        <v>78.396143733567044</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -953,7 +1048,7 @@
       </c>
       <c r="F16" s="7">
         <f>MAX(F10:F13)</f>
-        <v>15.428571428571427</v>
+        <v>14.818181818181818</v>
       </c>
     </row>
   </sheetData>

--- a/108/108.xlsx
+++ b/108/108.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D14"/>
+      <selection activeCell="F14" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,14 +911,14 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="5">
         <f>C10+D10+E10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="10">
         <f>((F10-F15)*50)/(F16-F15)+50</f>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" ref="B11:B14" si="0">SUM(B3:L3)</f>
+        <f>SUM(B3:L3)</f>
         <v>19.285714285714285</v>
       </c>
       <c r="C11" s="9">
@@ -949,7 +949,7 @@
       </c>
       <c r="G11" s="10">
         <f>((F11-F15)*50)/(F16-F15)+50</f>
-        <v>90.534618755477652</v>
+        <v>89.057750759878417</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B11:B14" si="0">SUM(B4:L4)</f>
         <v>27</v>
       </c>
       <c r="C12" s="9">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G13" s="10">
         <f>((F13-F15)*50)/(F16-F15)+50</f>
-        <v>84.399649430324274</v>
+        <v>81.965552178318134</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G14" s="10">
         <f>((F14-F15)*50)/(F16-F15)+50</f>
-        <v>78.396143733567044</v>
+        <v>75.025329280648435</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F15" s="7">
         <f>MIN(F10:F13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">

--- a/108/108.xlsx
+++ b/108/108.xlsx
@@ -587,25 +587,25 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F10:F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625"/>
+    <col min="7" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="15" width="9.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -868,14 +868,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -898,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -941,23 +941,23 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5">
         <f>C11+D11+E11</f>
-        <v>12.012987012987011</v>
+        <v>52.012987012987011</v>
       </c>
       <c r="G11" s="10">
         <f>((F11-F15)*50)/(F16-F15)+50</f>
-        <v>89.057750759878417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93.250224618149147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" ref="B11:B14" si="0">SUM(B4:L4)</f>
+        <f t="shared" ref="B12:B14" si="0">SUM(B4:L4)</f>
         <v>27</v>
       </c>
       <c r="C12" s="9">
@@ -968,18 +968,18 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5">
         <f>C12+D12+E12</f>
-        <v>14.818181818181818</v>
+        <v>59.81818181818182</v>
       </c>
       <c r="G12" s="10">
         <f>((F12-F15)*50)/(F16-F15)+50</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -995,18 +995,18 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
         <f>C13+D13+E13</f>
-        <v>10.194805194805195</v>
+        <v>48.194805194805198</v>
       </c>
       <c r="G13" s="10">
         <f>((F13-F15)*50)/(F16-F15)+50</f>
-        <v>81.965552178318134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89.948337825696314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1030,10 +1030,10 @@
       </c>
       <c r="G14" s="10">
         <f>((F14-F15)*50)/(F16-F15)+50</f>
-        <v>75.025329280648435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>55.548068283917338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="7">
         <f>MAX(F10:F13)</f>
-        <v>14.818181818181818</v>
+        <v>59.81818181818182</v>
       </c>
     </row>
   </sheetData>
